--- a/biology/Botanique/Ifs_de_La_Haye-de-Routot/Ifs_de_La_Haye-de-Routot.xlsx
+++ b/biology/Botanique/Ifs_de_La_Haye-de-Routot/Ifs_de_La_Haye-de-Routot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les ifs de La Haye-de-Routot sont deux ifs millénaires, plantés au centre du village de La Haye-de-Routot, en France. Leur tronc creux abrite un oratoire et une chapelle.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux ifs communs poussent dans le centre de La Haye-de-Routot, dans l'Eure, dans le cimetière de l'église Notre-Dame. Ils dépassent les 10 m de circonférence.
 À leur base, les troncs des deux ifs sont creux et abritent chacun un petit sanctuaire religieux. L'if le plus à l'est possède une chapelle dédiée à sainte Anne. Celui plus à l'ouest héberge un oratoire dédié à Notre-Dame-de-Lourdes.
@@ -544,14 +558,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'âge des ifs est estimé à au moins un millénaire. Si l'on attribue 1 400 ans à l'un et 1 600 ans à l'autre, ces datations ne sont pas certaines, et il est plus probable que les ifs aient autour de 1 000 ans.
-En 1866, la chapelle Sainte-Anne est installée dans l'if est. Elle ne fait plus l'objet aujourd'hui de pratiques cultuelles, à la différence de l'oratoire Notre-Dame-de-Lourdes, installé dans l'if ouest en 1897[1]. Cette cavité, ressemblant à une petite grotte, est parsemée de cierges, signalant la présence du culte marial.
-En 1932, les deux ifs reçoivent la qualification de  Site inscrit (1932)[2].
-Puis en 2001, ils reçoivent le label « arbre remarquable de France » en 2001[3]. Les pratiques cultuelles qui les entourent sont quant à elles référencées dans l'Inventaire du patrimoine culturel immatériel de la France[4]. On relève parmi elles des festivals directement liés au végétal: "fête des légumes oubliés", festival "Orties folles". 
+En 1866, la chapelle Sainte-Anne est installée dans l'if est. Elle ne fait plus l'objet aujourd'hui de pratiques cultuelles, à la différence de l'oratoire Notre-Dame-de-Lourdes, installé dans l'if ouest en 1897. Cette cavité, ressemblant à une petite grotte, est parsemée de cierges, signalant la présence du culte marial.
+En 1932, les deux ifs reçoivent la qualification de  Site inscrit (1932).
+Puis en 2001, ils reçoivent le label « arbre remarquable de France » en 2001. Les pratiques cultuelles qui les entourent sont quant à elles référencées dans l'Inventaire du patrimoine culturel immatériel de la France. On relève parmi elles des festivals directement liés au végétal: "fête des légumes oubliés", festival "Orties folles". 
 La présence d’anciens rites chrétiens et/ou païens christianisés est également toujours visible : chaque 16 juillet, au soir est allumé en grande cérémonie le gigantesque "feu de Saint-Clair", gigantesque bûcher dont la préparation, ponctuée elle-même de nombreuses étapes strictement codifiées, est assurée par une confrérie de charité fondée en 1496.
-En 2013, un des deux Ifs, celui contenant la chapelle, a été aspergé au glyphosate et est actuellement à demi mort[5].
+En 2013, un des deux Ifs, celui contenant la chapelle, a été aspergé au glyphosate et est actuellement à demi mort.
 </t>
         </is>
       </c>
